--- a/tradeease_issue_log.xlsx
+++ b/tradeease_issue_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Data Analysis Projects\TradeEase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9248117C-307B-4E03-8A3B-7C33E4220678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F1FCFA-106B-4FC3-9D6F-2B6113F04315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{674DADBB-6550-481F-83C4-D5BA6D16292E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Issue ID</t>
   </si>
@@ -71,12 +71,6 @@
     <t>case when to consolidate the records</t>
   </si>
   <si>
-    <t>Nulls in country column</t>
-  </si>
-  <si>
-    <t>tradeease.geo_lookup</t>
-  </si>
-  <si>
     <t>Nulls</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>case when based on name of product, should be permanent column</t>
   </si>
   <si>
-    <t>purchase_ts is a date and not a timestamp</t>
-  </si>
-  <si>
     <t>tradeease.orders / tradeease.order_status</t>
   </si>
   <si>
@@ -128,25 +119,31 @@
     <t>aliased to purchase_date</t>
   </si>
   <si>
-    <t>ship_ts is a date and not a timestamp</t>
-  </si>
-  <si>
     <t>tradeease.order_status</t>
   </si>
   <si>
     <t>aliased to ship_date</t>
   </si>
   <si>
-    <t>delivery_ts is a date and not a timestamp</t>
-  </si>
-  <si>
     <t>aliased to delivery_date</t>
   </si>
   <si>
-    <t>refund_ts is a date and not a timestamp</t>
-  </si>
-  <si>
     <t>aliased to refund_date</t>
+  </si>
+  <si>
+    <t>purchase_ts is a date and not a timestamp, unable to perform time analysis</t>
+  </si>
+  <si>
+    <t>ship_ts is a date and not a timestamp, unable to perform time analysis</t>
+  </si>
+  <si>
+    <t>delivery_ts is a date and not a timestamp, unable to perform time analysis</t>
+  </si>
+  <si>
+    <t>refund_ts is a date and not a timestamp, unable to perform time analysis</t>
+  </si>
+  <si>
+    <t>94 Nulls in country column</t>
   </si>
 </sst>
 </file>
@@ -229,12 +226,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,7 +573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C1C90-6F36-4AD9-9D48-08141F005672}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -616,7 +620,7 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -628,19 +632,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -648,19 +652,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -668,19 +672,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -688,19 +692,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -708,19 +712,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -728,39 +732,39 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -771,16 +775,16 @@
         <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -788,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
